--- a/Employee_Reports21/Crisfo Lo Nibal Q0489.xlsx
+++ b/Employee_Reports21/Crisfo Lo Nibal Q0489.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1462,11 +1462,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1510,11 +1510,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1558,11 +1558,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1606,11 +1606,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1654,11 +1654,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1750,11 +1750,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1894,11 +1894,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1990,11 +1990,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2038,11 +2038,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2086,11 +2086,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2132,11 +2132,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2179,11 +2179,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2225,11 +2225,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2271,11 +2271,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2317,11 +2317,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
@@ -2399,11 +2399,11 @@
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
@@ -2445,11 +2445,11 @@
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
@@ -2491,11 +2491,11 @@
         </is>
       </c>
       <c r="H44" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
@@ -2537,11 +2537,11 @@
         </is>
       </c>
       <c r="H45" s="3" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
@@ -2583,11 +2583,11 @@
         </is>
       </c>
       <c r="H46" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J46" s="3" t="inlineStr">
@@ -2619,11 +2619,11 @@
         </is>
       </c>
       <c r="H47" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J47" s="3" t="inlineStr">
@@ -2665,11 +2665,11 @@
         </is>
       </c>
       <c r="H48" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J48" s="3" t="inlineStr">
@@ -2711,11 +2711,11 @@
         </is>
       </c>
       <c r="H49" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J49" s="3" t="inlineStr">
